--- a/Data/Results/site_distances_Km.xlsx
+++ b/Data/Results/site_distances_Km.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD_Code\STOICH_networks\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD_Code\STOICH_networks\Data\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57D1F635-F724-4810-9113-ABC77A4A449F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4545E7BB-5AE1-43F3-AE21-9FF7A8FD809A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1DDC4863-3B09-4C26-91B7-622ECFFFE014}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1DDC4863-3B09-4C26-91B7-622ECFFFE014}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>GL5_OUTLET</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>ALB_INLET</t>
+  </si>
+  <si>
+    <t>Arikaree_GLACIER</t>
   </si>
 </sst>
 </file>
@@ -429,529 +432,596 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B62332-C950-4DE0-A90E-02509FA303B3}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
       <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.21099999999999999</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="D2">
-        <v>0.441</v>
+        <f>C2+D3</f>
+        <v>1.125</v>
       </c>
       <c r="E2">
         <f>C2+E3</f>
+        <v>1.355</v>
+      </c>
+      <c r="F2">
+        <f>$C$2+F3</f>
+        <v>1.9489999999999998</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:P2" si="0">$C$2+G3</f>
+        <v>2.169</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>2.8820000000000001</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>3.0150000000000001</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>3.2030000000000003</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>3.5050000000000003</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>4.351</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>3.9830000000000001</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>4.3229999999999995</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>4.476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.441</v>
+      </c>
+      <c r="F3">
+        <f>D3+F4</f>
         <v>1.0349999999999999</v>
-      </c>
-      <c r="F2">
-        <f>E2+F5</f>
-        <v>1.2549999999999999</v>
-      </c>
-      <c r="G2">
-        <f>F2+G6</f>
-        <v>1.536</v>
-      </c>
-      <c r="H2">
-        <f>G2+H7</f>
-        <v>1.968</v>
-      </c>
-      <c r="I2">
-        <f>H2+I8</f>
-        <v>2.101</v>
-      </c>
-      <c r="J2">
-        <f>I2+J9</f>
-        <v>2.2890000000000001</v>
-      </c>
-      <c r="K2">
-        <f>J2+K10</f>
-        <v>2.5910000000000002</v>
-      </c>
-      <c r="L2">
-        <f>M2+M12</f>
-        <v>3.4369999999999998</v>
-      </c>
-      <c r="M2">
-        <f>K2+M11</f>
-        <v>3.069</v>
-      </c>
-      <c r="N2">
-        <f>M2+N13</f>
-        <v>3.4089999999999998</v>
-      </c>
-      <c r="O2">
-        <f>N2+O14</f>
-        <v>3.5619999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.23</v>
-      </c>
-      <c r="E3">
-        <f>D3+E4</f>
-        <v>0.82399999999999995</v>
-      </c>
-      <c r="F3">
-        <f>E3+F5</f>
-        <v>1.044</v>
       </c>
       <c r="G3">
         <f>F3+G6</f>
-        <v>1.3250000000000002</v>
+        <v>1.2549999999999999</v>
       </c>
       <c r="H3">
         <f>G3+H7</f>
-        <v>1.7570000000000001</v>
+        <v>1.536</v>
       </c>
       <c r="I3">
         <f>H3+I8</f>
-        <v>1.8900000000000001</v>
+        <v>1.968</v>
       </c>
       <c r="J3">
         <f>I3+J9</f>
-        <v>2.0780000000000003</v>
+        <v>2.101</v>
       </c>
       <c r="K3">
         <f>J3+K10</f>
-        <v>2.3800000000000003</v>
+        <v>2.2890000000000001</v>
       </c>
       <c r="L3">
-        <f>M3+M12</f>
-        <v>3.2260000000000004</v>
+        <f>K3+L11</f>
+        <v>2.5910000000000002</v>
       </c>
       <c r="M3">
-        <f>K3+M11</f>
-        <v>2.8580000000000005</v>
+        <f>N3+N13</f>
+        <v>3.4369999999999998</v>
       </c>
       <c r="N3">
-        <f>M3+N13</f>
-        <v>3.1980000000000004</v>
+        <f>L3+N12</f>
+        <v>3.069</v>
       </c>
       <c r="O3">
         <f>N3+O14</f>
-        <v>3.3510000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.4089999999999998</v>
+      </c>
+      <c r="P3">
+        <f>O3+P15</f>
+        <v>3.5619999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.59399999999999997</v>
+        <v>0.23</v>
       </c>
       <c r="F4">
         <f>E4+F5</f>
-        <v>0.81399999999999995</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="G4">
         <f>F4+G6</f>
-        <v>1.095</v>
+        <v>1.044</v>
       </c>
       <c r="H4">
         <f>G4+H7</f>
-        <v>1.5269999999999999</v>
+        <v>1.3250000000000002</v>
       </c>
       <c r="I4">
         <f>H4+I8</f>
-        <v>1.66</v>
+        <v>1.7570000000000001</v>
       </c>
       <c r="J4">
         <f>I4+J9</f>
-        <v>1.8479999999999999</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="K4">
         <f>J4+K10</f>
-        <v>2.15</v>
+        <v>2.0780000000000003</v>
       </c>
       <c r="L4">
-        <f>M12+M4</f>
-        <v>2.996</v>
+        <f>K4+L11</f>
+        <v>2.3800000000000003</v>
       </c>
       <c r="M4">
-        <f>K4+M11</f>
-        <v>2.6280000000000001</v>
+        <f>N4+N13</f>
+        <v>3.2260000000000004</v>
       </c>
       <c r="N4">
-        <f>M4+N13</f>
-        <v>2.968</v>
+        <f>L4+N12</f>
+        <v>2.8580000000000005</v>
       </c>
       <c r="O4">
         <f>N4+O14</f>
-        <v>3.121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.1980000000000004</v>
+      </c>
+      <c r="P4">
+        <f>O4+P15</f>
+        <v>3.3510000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.22</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="G5">
-        <v>0.50700000000000001</v>
+        <f>F5+G6</f>
+        <v>0.81399999999999995</v>
       </c>
       <c r="H5">
         <f>G5+H7</f>
-        <v>0.93900000000000006</v>
+        <v>1.095</v>
       </c>
       <c r="I5">
         <f>H5+I8</f>
-        <v>1.0720000000000001</v>
+        <v>1.5269999999999999</v>
       </c>
       <c r="J5">
         <f>I5+J9</f>
-        <v>1.26</v>
+        <v>1.66</v>
       </c>
       <c r="K5">
         <f>J5+K10</f>
-        <v>1.5620000000000001</v>
+        <v>1.8479999999999999</v>
       </c>
       <c r="L5">
-        <f>M12+M5</f>
-        <v>2.4079999999999999</v>
+        <f>K5+L11</f>
+        <v>2.15</v>
       </c>
       <c r="M5">
-        <f>K5+M11</f>
-        <v>2.04</v>
+        <f>N13+N5</f>
+        <v>2.996</v>
       </c>
       <c r="N5">
-        <f>M5+N13</f>
-        <v>2.38</v>
+        <f>L5+N12</f>
+        <v>2.6280000000000001</v>
       </c>
       <c r="O5">
         <f>N5+O14</f>
-        <v>2.5329999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.968</v>
+      </c>
+      <c r="P5">
+        <f>O5+P15</f>
+        <v>3.121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.28100000000000003</v>
+        <v>0.22</v>
       </c>
       <c r="H6">
-        <f>G6+H7</f>
-        <v>0.71300000000000008</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="I6">
         <f>H6+I8</f>
-        <v>0.84600000000000009</v>
+        <v>0.93900000000000006</v>
       </c>
       <c r="J6">
         <f>I6+J9</f>
-        <v>1.034</v>
+        <v>1.0720000000000001</v>
       </c>
       <c r="K6">
         <f>J6+K10</f>
-        <v>1.3360000000000001</v>
+        <v>1.26</v>
       </c>
       <c r="L6">
-        <f>M12+M6</f>
-        <v>2.1819999999999999</v>
+        <f>K6+L11</f>
+        <v>1.5620000000000001</v>
       </c>
       <c r="M6">
-        <f>K6+M11</f>
-        <v>1.8140000000000001</v>
+        <f>N13+N6</f>
+        <v>2.4079999999999999</v>
       </c>
       <c r="N6">
-        <f>M6+N13</f>
-        <v>2.1539999999999999</v>
+        <f>L6+N12</f>
+        <v>2.04</v>
       </c>
       <c r="O6">
         <f>N6+O14</f>
-        <v>2.3069999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.38</v>
+      </c>
+      <c r="P6">
+        <f>O6+P15</f>
+        <v>2.5329999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.432</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="I7">
         <f>H7+I8</f>
-        <v>0.56499999999999995</v>
+        <v>0.71300000000000008</v>
       </c>
       <c r="J7">
         <f>I7+J9</f>
-        <v>0.75299999999999989</v>
+        <v>0.84600000000000009</v>
       </c>
       <c r="K7">
         <f>J7+K10</f>
-        <v>1.0549999999999999</v>
+        <v>1.034</v>
       </c>
       <c r="L7">
-        <f>M12+M7</f>
-        <v>1.9009999999999998</v>
+        <f>K7+L11</f>
+        <v>1.3360000000000001</v>
       </c>
       <c r="M7">
-        <f>K7+M11</f>
-        <v>1.5329999999999999</v>
+        <f>N13+N7</f>
+        <v>2.1819999999999999</v>
       </c>
       <c r="N7">
-        <f>M7+N13</f>
-        <v>1.873</v>
+        <f>L7+N12</f>
+        <v>1.8140000000000001</v>
       </c>
       <c r="O7">
         <f>N7+O14</f>
-        <v>2.0259999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="P7">
+        <f>O7+P15</f>
+        <v>2.3069999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.13300000000000001</v>
+        <v>0.432</v>
       </c>
       <c r="J8">
-        <v>0.32100000000000001</v>
+        <f>I8+J9</f>
+        <v>0.56499999999999995</v>
       </c>
       <c r="K8">
         <f>J8+K10</f>
-        <v>0.623</v>
+        <v>0.75299999999999989</v>
       </c>
       <c r="L8">
-        <f>M12+M8</f>
-        <v>1.4689999999999999</v>
+        <f>K8+L11</f>
+        <v>1.0549999999999999</v>
       </c>
       <c r="M8">
-        <f>K8+M11</f>
-        <v>1.101</v>
+        <f>N13+N8</f>
+        <v>1.9009999999999998</v>
       </c>
       <c r="N8">
-        <f>M8+N13</f>
-        <v>1.4410000000000001</v>
+        <f>L8+N12</f>
+        <v>1.5329999999999999</v>
       </c>
       <c r="O8">
         <f>N8+O14</f>
-        <v>1.5940000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.873</v>
+      </c>
+      <c r="P8">
+        <f>O8+P15</f>
+        <v>2.0259999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.188</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="K9">
-        <f>J9+K10</f>
-        <v>0.49</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="L9">
-        <f>M12+M9</f>
-        <v>1.3359999999999999</v>
+        <f>K9+L11</f>
+        <v>0.623</v>
       </c>
       <c r="M9">
-        <f>K9+M11</f>
-        <v>0.96799999999999997</v>
+        <f>N13+N9</f>
+        <v>1.4689999999999999</v>
       </c>
       <c r="N9">
-        <f>M9+N13</f>
-        <v>1.3080000000000001</v>
+        <f>L9+N12</f>
+        <v>1.101</v>
       </c>
       <c r="O9">
         <f>N9+O14</f>
-        <v>1.4610000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.4410000000000001</v>
+      </c>
+      <c r="P9">
+        <f>O9+P15</f>
+        <v>1.5940000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.30199999999999999</v>
+        <v>0.188</v>
       </c>
       <c r="L10">
-        <f>M12+M10</f>
-        <v>1.1480000000000001</v>
+        <f>K10+L11</f>
+        <v>0.49</v>
       </c>
       <c r="M10">
-        <f>K10+M11</f>
-        <v>0.78</v>
+        <f>N13+N10</f>
+        <v>1.3359999999999999</v>
       </c>
       <c r="N10">
-        <f>M10+N13</f>
-        <v>1.1200000000000001</v>
+        <f>L10+N12</f>
+        <v>0.96799999999999997</v>
       </c>
       <c r="O10">
         <f>N10+O14</f>
+        <v>1.3080000000000001</v>
+      </c>
+      <c r="P10">
+        <f>O10+P15</f>
+        <v>1.4610000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="M11">
+        <f>N13+N11</f>
+        <v>1.1480000000000001</v>
+      </c>
+      <c r="N11">
+        <f>L11+N12</f>
+        <v>0.78</v>
+      </c>
+      <c r="O11">
+        <f>N11+O14</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="P11">
+        <f>O11+P15</f>
         <v>1.2730000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <f>M12+M11</f>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f>N13+N12</f>
         <v>0.84599999999999997</v>
       </c>
-      <c r="M11">
+      <c r="N12">
         <v>0.47799999999999998</v>
       </c>
-      <c r="N11">
-        <f>M11+N13</f>
+      <c r="O12">
+        <f>N12+O14</f>
         <v>0.81800000000000006</v>
       </c>
-      <c r="O11">
-        <f>O14</f>
+      <c r="P12">
+        <f>P15</f>
         <v>0.153</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
         <v>0.36799999999999999</v>
       </c>
-      <c r="N12">
+      <c r="O13">
         <v>0.28899999999999998</v>
       </c>
-      <c r="O12">
-        <f>0.261+N12+O14</f>
+      <c r="P13">
+        <f>0.261+O13+P15</f>
         <v>0.70300000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
         <v>0.34</v>
       </c>
-      <c r="O13">
+      <c r="P14">
         <v>0.49299999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
         <v>0.153</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="O15">
+      <c r="P16">
         <v>0</v>
       </c>
     </row>
